--- a/MejorGasto_Mod_2022-02-07.xlsx
+++ b/MejorGasto_Mod_2022-02-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="65">
   <si>
     <t>colsem</t>
   </si>
@@ -74,6 +74,141 @@
   </si>
   <si>
     <t>Duplicado</t>
+  </si>
+  <si>
+    <t>61) Del 03/01 al 09/01</t>
+  </si>
+  <si>
+    <t>62) Del 10/01 al 16/01</t>
+  </si>
+  <si>
+    <t>63) Del 17/01 al 23/01</t>
+  </si>
+  <si>
+    <t>64) Del 24/01 al 30/01</t>
+  </si>
+  <si>
+    <t>61) Del 03/01/2022 al 09/01/2022</t>
+  </si>
+  <si>
+    <t>62) Del 10/01/2022 al 16/01/2022</t>
+  </si>
+  <si>
+    <t>63) Del 17/01/2022 al 23/01/2022</t>
+  </si>
+  <si>
+    <t>64) Del 24/01/2022 al 30/01/2022</t>
+  </si>
+  <si>
+    <t>Enero</t>
+  </si>
+  <si>
+    <t>2022-01-03</t>
+  </si>
+  <si>
+    <t>2022-01-06</t>
+  </si>
+  <si>
+    <t>2022-01-10</t>
+  </si>
+  <si>
+    <t>2022-01-12</t>
+  </si>
+  <si>
+    <t>2022-01-14</t>
+  </si>
+  <si>
+    <t>2022-01-17</t>
+  </si>
+  <si>
+    <t>2022-01-19</t>
+  </si>
+  <si>
+    <t>2022-01-21</t>
+  </si>
+  <si>
+    <t>2022-01-26</t>
+  </si>
+  <si>
+    <t>RENZO</t>
+  </si>
+  <si>
+    <t>Renzo Gamero</t>
+  </si>
+  <si>
+    <t>ANCASH</t>
+  </si>
+  <si>
+    <t>AREQUIPA</t>
+  </si>
+  <si>
+    <t>LAMBAYEQUE</t>
+  </si>
+  <si>
+    <t>CUSCO</t>
+  </si>
+  <si>
+    <t>LIMA</t>
+  </si>
+  <si>
+    <t>HUARAZ</t>
+  </si>
+  <si>
+    <t>FERREÑAFE</t>
+  </si>
+  <si>
+    <t>LA CONVENCION</t>
+  </si>
+  <si>
+    <t>CAJATAMBO</t>
+  </si>
+  <si>
+    <t>BARRANCA</t>
+  </si>
+  <si>
+    <t>CAÑETE</t>
+  </si>
+  <si>
+    <t>YANAHUARA</t>
+  </si>
+  <si>
+    <t>CAÑARIS</t>
+  </si>
+  <si>
+    <t>SANTA ANA</t>
+  </si>
+  <si>
+    <t>BREÑA</t>
+  </si>
+  <si>
+    <t>GORGOR</t>
+  </si>
+  <si>
+    <t>SAN VICENTE DE CAÑETE</t>
+  </si>
+  <si>
+    <t>CPNP HUARAZ</t>
+  </si>
+  <si>
+    <t>CPNP YANAHUARA</t>
+  </si>
+  <si>
+    <t>CPNP CAÑARIS</t>
+  </si>
+  <si>
+    <t>CPNP QUILLABAMBA</t>
+  </si>
+  <si>
+    <t>CPNP BREÑA</t>
+  </si>
+  <si>
+    <t>CPNP GORGOR</t>
+  </si>
+  <si>
+    <t>CPNP BARRANCA</t>
+  </si>
+  <si>
+    <t>CPNP SAN VICENTE</t>
   </si>
 </sst>
 </file>
@@ -431,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -499,6 +634,564 @@
         <v>19</v>
       </c>
     </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>2022</v>
+      </c>
+      <c r="I2">
+        <v>2022</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2">
+        <v>20220103</v>
+      </c>
+      <c r="L2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2">
+        <v>3</v>
+      </c>
+      <c r="R2">
+        <v>2</v>
+      </c>
+      <c r="S2">
+        <v>20220103</v>
+      </c>
+      <c r="T2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>2022</v>
+      </c>
+      <c r="I3">
+        <v>2022</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3">
+        <v>20220106</v>
+      </c>
+      <c r="L3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q3">
+        <v>6</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>20220106</v>
+      </c>
+      <c r="T3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>2022</v>
+      </c>
+      <c r="I4">
+        <v>2022</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4">
+        <v>20220110</v>
+      </c>
+      <c r="L4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q4">
+        <v>8</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>20220110</v>
+      </c>
+      <c r="T4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>2022</v>
+      </c>
+      <c r="I5">
+        <v>2022</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5">
+        <v>20220112</v>
+      </c>
+      <c r="L5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5">
+        <v>13</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>20220112</v>
+      </c>
+      <c r="T5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>62</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>2022</v>
+      </c>
+      <c r="I6">
+        <v>2022</v>
+      </c>
+      <c r="J6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6">
+        <v>20220114</v>
+      </c>
+      <c r="L6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q6">
+        <v>16</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>20220114</v>
+      </c>
+      <c r="T6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>2022</v>
+      </c>
+      <c r="I7">
+        <v>2022</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7">
+        <v>20220117</v>
+      </c>
+      <c r="L7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q7">
+        <v>19</v>
+      </c>
+      <c r="R7">
+        <v>11</v>
+      </c>
+      <c r="S7">
+        <v>20220117</v>
+      </c>
+      <c r="T7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>2022</v>
+      </c>
+      <c r="I8">
+        <v>2022</v>
+      </c>
+      <c r="J8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8">
+        <v>20220119</v>
+      </c>
+      <c r="L8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8" t="s">
+        <v>55</v>
+      </c>
+      <c r="P8" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8">
+        <v>13</v>
+      </c>
+      <c r="R8">
+        <v>11</v>
+      </c>
+      <c r="S8">
+        <v>20220119</v>
+      </c>
+      <c r="T8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>2022</v>
+      </c>
+      <c r="I9">
+        <v>2022</v>
+      </c>
+      <c r="J9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9">
+        <v>20220121</v>
+      </c>
+      <c r="L9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" t="s">
+        <v>49</v>
+      </c>
+      <c r="P9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q9">
+        <v>16</v>
+      </c>
+      <c r="R9">
+        <v>6</v>
+      </c>
+      <c r="S9">
+        <v>20220121</v>
+      </c>
+      <c r="T9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>2022</v>
+      </c>
+      <c r="I10">
+        <v>2022</v>
+      </c>
+      <c r="J10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10">
+        <v>20220126</v>
+      </c>
+      <c r="L10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O10" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q10">
+        <v>8</v>
+      </c>
+      <c r="R10">
+        <v>8</v>
+      </c>
+      <c r="S10">
+        <v>20220126</v>
+      </c>
+      <c r="T10" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
